--- a/biology/Botanique/Arbre_à_clous/Arbre_à_clous.xlsx
+++ b/biology/Botanique/Arbre_à_clous/Arbre_à_clous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_clous</t>
+          <t>Arbre_à_clous</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un arbre à clous est un type d'arbre votif, une forme de dendrolâtrie qui se rencontre particulièrement en Belgique, mais aussi dans d'autres régions, comparable aux arbres à loques ou à chiffons. Sa réputation se fonde sur l'ancienne croyance populaire qui estimait qu'un mal physique (son mauvais esprit), principalement les maux de dents et les maladies de la peau, pouvait, par un processus rituel, être extirpé du corps et cloué à un arbre. L'élimination du mauvais esprit entraînait ainsi la guérison[1].
-La présence des arbres à clous rappelle aujourd'hui une des dernières survivances de rites antiques issus de diverses formes de paganisme, progressivement remplacés par d'autres symboles du catholicisme. Ils sont aussi remarquables par les missions et rôles curieux que leur ont assignés les hommes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un arbre à clous est un type d'arbre votif, une forme de dendrolâtrie qui se rencontre particulièrement en Belgique, mais aussi dans d'autres régions, comparable aux arbres à loques ou à chiffons. Sa réputation se fonde sur l'ancienne croyance populaire qui estimait qu'un mal physique (son mauvais esprit), principalement les maux de dents et les maladies de la peau, pouvait, par un processus rituel, être extirpé du corps et cloué à un arbre. L'élimination du mauvais esprit entraînait ainsi la guérison.
+La présence des arbres à clous rappelle aujourd'hui une des dernières survivances de rites antiques issus de diverses formes de paganisme, progressivement remplacés par d'autres symboles du catholicisme. Ils sont aussi remarquables par les missions et rôles curieux que leur ont assignés les hommes.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_clous</t>
+          <t>Arbre_à_clous</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,19 +526,135 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Autriche
-Vienne : épicéa – mort – de la Stock-im-Eisen-Platz (1re moitié du XVe siècle)
-Belgique
-En 2003, ont été recensés 33 arbres à clous en province de Liège, 8 en province de Hainaut, 7 en province de Namur, 4 en province de Luxembourg, 4 en province de Brabant et 3 en Flandre[2].
-Province de Hainaut
-Gilly : tilleuls de Soleilmont
+          <t>Autriche</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vienne : épicéa – mort – de la Stock-im-Eisen-Platz (1re moitié du XVe siècle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, ont été recensés 33 arbres à clous en province de Liège, 8 en province de Hainaut, 7 en province de Namur, 4 en province de Luxembourg, 4 en province de Brabant et 3 en Flandre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Province de Hainaut</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gilly : tilleuls de Soleilmont
 Havré : chêne « pouilleux »
 Herchies : chêne Saint-Antoine (appelé localement el quêne à claus), classé en 1985
 Ostiches : chêne Saint-Pierre
-Stambruges : robinier de la chapelle de l'Arcompuch; abattu par le vent en 2009[3], le robinier a été remplacé dans la ferveur populaire par un chêne croissant à proximité immédiate
-Province de Liège
-Vien (Anthisnes) : tilleul des Floxhes
-José (Battice)  : tilleul du Coftice, abattu par la foudre vers 1990, remplacé[4]
+Stambruges : robinier de la chapelle de l'Arcompuch; abattu par le vent en 2009, le robinier a été remplacé dans la ferveur populaire par un chêne croissant à proximité immédiate</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Province de Liège</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vien (Anthisnes) : tilleul des Floxhes
+José (Battice)  : tilleul du Coftice, abattu par la foudre vers 1990, remplacé
 Deigné (Aywaille) : tilleul « devant l'église »
 Hameau de Foyir (Jalhay) : clawé fawe (« hêtre cloué »)
 Limont (Donceel) : tilleul
@@ -534,35 +662,410 @@
 Saint-Hadelin : tilleul du fief
 Saive (Blegny) : tilleul de Miermont
 Sprimont : tilleul de Lillé
-Xhoris : tilleul des Lognards classé en 1965 et tilleuls de la chapelle de Fanson
-Province du Limbourg
-Fouron-le-Comte : marronnier
+Xhoris : tilleul des Lognards classé en 1965 et tilleuls de la chapelle de Fanson</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Province du Limbourg</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fouron-le-Comte : marronnier
 Koninksem : tilleul Saint-Joseph, arbre disparu
-Val-Meer : le kwartjesboom[5]
-Province du Luxembourg
-Izier (Durbuy) : tilleul du Baty
-Longueville, chemin vers Jenneret (Tohogne, Durbuy)  : tilleul de la croix des Combes – la croix en question est un simple crucifix fixé à l'arbre[6]
-Province de Namur
-Dréhance : tilleul Notre-Dame
+Val-Meer : le kwartjesboom</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Province du Luxembourg</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Izier (Durbuy) : tilleul du Baty
+Longueville, chemin vers Jenneret (Tohogne, Durbuy)  : tilleul de la croix des Combes – la croix en question est un simple crucifix fixé à l'arbre</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Province de Namur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dréhance : tilleul Notre-Dame
 Floreffe : tilleuls de la chapelle Saint-Roch
 Floriffoux : chêne Saint-Hubert, mort en 2008
 Han-sur-Lesse : tilleul de l'église Saint-Hubert
-Vierves-sur-Viroin : chêne du chemin du Paradis
-France
-Ain
-Dagneux[7]
-Île-de-France
-Provins : tilleul de la place Saint-Quiriace
-Loire-Atlantique
-Bonnœuvre : chêne aux clous du Pâtisseau[8]
-Nièvre
-Lorien (Corancy) : frêne de la chapelle de Faubouloin[7]
-Territoire de Belfort
-Souche de la vierge entre Lepuix et Giromagny
-Lot
-Rocamadour : une bûche cloutée dans les enceintes de la ville, partie du pèlerinage des chemins de Compostelle
-Pays-Bas
-Gemert : un chêne, disparu au Moyen Âge
+Vierves-sur-Viroin : chêne du chemin du Paradis</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ain</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dagneux</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Provins : tilleul de la place Saint-Quiriace</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Loire-Atlantique</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bonnœuvre : chêne aux clous du Pâtisseau</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Nièvre</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lorien (Corancy) : frêne de la chapelle de Faubouloin</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Territoire de Belfort</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Souche de la vierge entre Lepuix et Giromagny</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Lot</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Rocamadour : une bûche cloutée dans les enceintes de la ville, partie du pèlerinage des chemins de Compostelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Arbre_à_clous</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_clous</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Localisation de quelques arbres à clous</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Gemert : un chêne, disparu au Moyen Âge
 Gieten : arbre disparu
 Yde : 2 breukenbomen</t>
         </is>
